--- a/excel/출고요청서_상세.xlsx
+++ b/excel/출고요청서_상세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\mescius-sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89AD58C-A8A5-4605-94B7-FC34702FB945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24796296-CE11-4A17-B3E0-A4E68D25F6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA5BC50A-3138-4E3D-A84C-65CC17DC5F3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA5BC50A-3138-4E3D-A84C-65CC17DC5F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <font>
       <b/>
       <sz val="36"/>
-      <color theme="0"/>
+      <color rgb="FF36495E"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -405,6 +405,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -420,16 +426,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,8 +440,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE6E6E6"/>
       <color rgb="FF36495E"/>
-      <color rgb="FFE6E6E6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -784,13 +784,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
@@ -798,135 +798,135 @@
       <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="17.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="17.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="17.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="17.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="17.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="17.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="17.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="2"/>
